--- a/app/config/tables/consultation/forms/consultation/consultation.xlsx
+++ b/app/config/tables/consultation/forms/consultation/consultation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ray\Research\app-designer\app\config\tables\consultation\forms\consultation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8E7DCC-E8A0-4B1E-BE1C-89DA97C4D98B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDDEDC1-DC4C-4A04-8448-9D7FD7F35DE2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6C1E18E4-09A1-4808-924E-5FB850D6A122}"/>
+    <workbookView xWindow="6050" yWindow="350" windowWidth="14400" windowHeight="7360" xr2:uid="{6C1E18E4-09A1-4808-924E-5FB850D6A122}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>branch_label</t>
   </si>
@@ -65,63 +65,12 @@
     <t>string</t>
   </si>
   <si>
-    <t>consul_init</t>
-  </si>
-  <si>
-    <t>You are about to enter a medical consultation. Please make sure you are prepared and with a doctor before proceeding.</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>Please enter your height in centimeters (cm)</t>
-  </si>
-  <si>
     <t>begin screen</t>
   </si>
   <si>
     <t>end screen</t>
   </si>
   <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>Please enter your weight in kilograms (kg)</t>
-  </si>
-  <si>
-    <t>blood_pressure</t>
-  </si>
-  <si>
-    <t>Please enter your blood pressure</t>
-  </si>
-  <si>
-    <t>heart_rate</t>
-  </si>
-  <si>
-    <t>Please enter your heart rate</t>
-  </si>
-  <si>
-    <t>resp_rate</t>
-  </si>
-  <si>
-    <t>Please enter your respiratory rate</t>
-  </si>
-  <si>
-    <t>SpO2</t>
-  </si>
-  <si>
-    <t>Please enter your SpO2</t>
-  </si>
-  <si>
-    <t>b_t</t>
-  </si>
-  <si>
-    <t>Please enter your B.T.</t>
-  </si>
-  <si>
     <t>choice_list_name</t>
   </si>
   <si>
@@ -152,64 +101,34 @@
     <t>Consultation</t>
   </si>
   <si>
-    <t>Vaccinations</t>
-  </si>
-  <si>
-    <t>MMR</t>
-  </si>
-  <si>
-    <t>BCG</t>
-  </si>
-  <si>
-    <t>Polio</t>
-  </si>
-  <si>
-    <t>DPT</t>
-  </si>
-  <si>
-    <t>Tetanus</t>
-  </si>
-  <si>
-    <t>select_multiple</t>
-  </si>
-  <si>
-    <t>Please indicate which vaccinations you've had</t>
-  </si>
-  <si>
-    <t>vaccinations</t>
-  </si>
-  <si>
-    <t>patient_name</t>
-  </si>
-  <si>
-    <t>Please enter the patient's name</t>
-  </si>
-  <si>
-    <t>patient_age</t>
-  </si>
-  <si>
-    <t>Please enter the patient's age</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>Please enter the current location</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>Please enter the date</t>
-  </si>
-  <si>
-    <t>doc_name</t>
-  </si>
-  <si>
-    <t>Please enter the doctor's name</t>
-  </si>
-  <si>
     <t>note</t>
+  </si>
+  <si>
+    <t>doctor_note</t>
+  </si>
+  <si>
+    <t>findings</t>
+  </si>
+  <si>
+    <t>Findings:</t>
+  </si>
+  <si>
+    <t>Diagnosis:</t>
+  </si>
+  <si>
+    <t>diagnosis</t>
+  </si>
+  <si>
+    <t>treatment</t>
+  </si>
+  <si>
+    <t>Treatment:</t>
+  </si>
+  <si>
+    <t>The consultation is now over.</t>
+  </si>
+  <si>
+    <t>You are about to begin the consultation with the patient. Please make sure that the patient is ready and has completed the triage.</t>
   </si>
 </sst>
 </file>
@@ -564,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633FCF8F-9D48-4830-84D4-4082F1EBB9BB}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -614,18 +533,18 @@
     </row>
     <row r="2" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -633,41 +552,41 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -675,229 +594,205 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
+      <c r="F15" s="1"/>
+      <c r="G15"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="D40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" t="s">
-        <v>39</v>
-      </c>
-      <c r="F40" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B41" t="s">
-        <v>16</v>
-      </c>
+      <c r="F16" s="1"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F17" s="1"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F18" s="1"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F19" s="1"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F20" s="1"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F21" s="1"/>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F22" s="1"/>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F23" s="1"/>
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F24" s="1"/>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F25" s="1"/>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F26" s="1"/>
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F27" s="1"/>
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F28" s="1"/>
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F29" s="1"/>
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F30" s="1"/>
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F31" s="1"/>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F32" s="1"/>
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F33" s="1"/>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F34" s="1"/>
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F35" s="1"/>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F36" s="1"/>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F37" s="1"/>
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F38" s="1"/>
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F39" s="1"/>
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F40" s="1"/>
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F41" s="1"/>
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F42" s="1"/>
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F43" s="1"/>
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F44" s="1"/>
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F45" s="1"/>
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F46" s="1"/>
+      <c r="G46"/>
+    </row>
+    <row r="47" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F47" s="1"/>
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F48" s="1"/>
+      <c r="G48"/>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F49" s="1"/>
+      <c r="G49"/>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F50" s="1"/>
+      <c r="G50"/>
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F51" s="1"/>
+      <c r="G51"/>
+    </row>
+    <row r="52" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F52" s="1"/>
+      <c r="G52"/>
+    </row>
+    <row r="53" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F53" s="1"/>
+      <c r="G53"/>
+    </row>
+    <row r="54" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F54" s="1"/>
+      <c r="G54"/>
+    </row>
+    <row r="55" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F55" s="1"/>
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F56" s="1"/>
+      <c r="G56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -907,10 +802,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9D92AB-48A1-4A32-8291-A367F42C027A}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -922,68 +817,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -996,7 +836,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1008,10 +848,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -1019,15 +859,15 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>20190715</v>
@@ -1035,18 +875,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
